--- a/docs/PST1/PST1_30.07.24d_output.xlsx
+++ b/docs/PST1/PST1_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731602391.379595</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731602393.9321833</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602391.379595.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602393.9321833.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.65</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>287.13</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.480000000000018</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731602393.947117</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731602394.5396137</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602393.947117.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602394.5396137.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>287.13</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>287.68</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731602395.5101197</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731602396.6126792</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602395.5101197.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602396.6126792.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>287.44</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>287.89</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731602403.9827657</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731602405.4353857</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602403.9827657.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602405.4353857.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>288.86</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>288.97</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1100000000000136</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731602410.5350173</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731602412.7007096</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602410.5350173.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602412.7007096.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>289.72</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>290.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4799999999999613</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731602415.8204992</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731602425.6721172</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602415.8204992.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602425.6721172.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.88</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.780000000000001</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-1.36</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731602425.6870487</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731602426.6046891</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602425.6870487.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602426.6046891.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.88</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.05</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1700000000000159</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731602427.2344568</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731602427.4446456</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602427.2344568.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602427.4446456.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.93</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731602427.7286508</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731602428.3732345</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602427.7286508.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602428.3732345.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>132.51</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.2900000000000205</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731602429.1962156</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731602430.398597</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602429.1962156.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602430.398597.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>133.38</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>133.46</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731602432.0075595</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731602433.0332136</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602432.0075595.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602433.0332136.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>133.73</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>133.96</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2300000000000182</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731602433.488373</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731602434.4515998</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602433.488373.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602434.4515998.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>133.56</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>133.87</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731602440.126751</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731602443.6709344</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602440.126751.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602443.6709344.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6736</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6748.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-12.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731602443.6858735</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731602444.9180932</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602443.6858735.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602444.9180932.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6748.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6739.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-9</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731602447.7284884</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731602458.6142492</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602447.7284884.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602458.6142492.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6749.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6783</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-33.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1319,95 +1425,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731602461.6858735</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731602461.6858735.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731602461.6858735.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6806.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>6806.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6804.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731602463.1018112</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731602464.050155</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602463.1018112.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602464.050155.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>498.7</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>503.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5.100000000000023</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731602464.0640774</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731602467.523412</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602464.0640774.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602467.523412.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>503.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>504.15</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731602467.537348</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731602470.8276567</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602467.537348.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602470.8276567.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>504.15</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>506.85</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.700000000000045</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731602472.4438472</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731602473.4300318</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602472.4438472.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602473.4300318.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>509.55</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>510.05</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731602476.1775506</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731602478.0824535</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602476.1775506.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602478.0824535.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>510.15</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>511.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.650000000000034</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731602479.0629091</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731602480.8628006</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602479.0629091.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602480.8628006.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>510.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>510.75</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.25</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731602483.256397</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731602483.766858</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602483.256397.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602483.766858.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>509.95</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>510.65</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731602484.287593</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731602486.5945404</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602484.287593.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602486.5945404.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>509.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>511.35</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.950000000000045</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1779,95 +1939,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731602486.6104703</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731602486.6104703.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731602486.6104703.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>511.35</v>
       </c>
-      <c r="J27" t="n">
-        <v>511.35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>510.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731602486.9494114</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731602490.0016115</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602486.9494114.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602490.0016115.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1020.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1034</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>13.20000000000005</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731602490.0165713</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731602490.8426602</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602490.0165713.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602490.8426602.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1034</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1033.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731602490.85762</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731602491.5015018</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602490.85762.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602491.5015018.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1033.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1031.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-2</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731602494.037865</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731602494.5950108</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602494.037865.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602494.5950108.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1032.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1035</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731602498.2217333</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731602499.0770862</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602498.2217333.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602499.0770862.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1038</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1037</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-1</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731602500.4624982</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731602501.3820572</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602500.4624982.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602501.3820572.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1037.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1039.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.600000000000136</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731602502.6564126</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731602503.4494941</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602502.6564126.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602503.4494941.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1045.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1048</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731602504.77516</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731602504.9581087</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602504.77516.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602504.9581087.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1048.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1050</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731602506.2149456</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731602507.1817284</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602506.2149456.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602507.1817284.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1050.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1049.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.199999999999818</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2291,95 +2511,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731602509.7139447</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731602509.7139447.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731602509.7139447.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1047.8</v>
       </c>
-      <c r="J37" t="n">
-        <v>1047.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1048</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731602510.5348966</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731602512.5609536</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602510.5348966.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602512.5609536.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>125.08</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>125.42</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731602512.5749156</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731602516.3045208</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602512.5749156.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602516.3045208.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>125.42</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>125.06</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731602516.319453</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731602518.0446918</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602516.319453.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602518.0446918.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>125.06</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>125.46</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731602518.0596516</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731602520.4032326</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602518.0596516.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602520.4032326.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>125.46</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>126.68</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.220000000000013</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.97</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731602520.4181645</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731602521.361279</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602520.4181645.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602521.361279.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>126.68</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>126.9</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731602523.873374</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731602524.7338622</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602523.873374.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602524.7338622.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>126.44</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>126.86</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731602526.5901902</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731602529.3753824</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602526.5901902.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602529.3753824.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>126.78</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>127.48</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731602530.9090345</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731602531.1779041</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602530.9090345.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602531.1779041.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>126.76</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>126.88</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2751,95 +3025,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731602533.1284342</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731602533.1284342.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731602533.1284342.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>127.3</v>
       </c>
-      <c r="J46" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>127.58</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731602535.2388678</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731602545.782211</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602535.2388678.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602545.782211.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>164.88</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>165.26</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731602545.797171</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731602546.994984</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602545.797171.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602546.994984.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>165.26</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>165.34</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2899,51 +3191,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731602547.9232721</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731602548.7260513</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602547.9232721.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602548.7260513.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>166.3</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>166.14</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.160000000000025</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2951,51 +3249,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731602550.0836828</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731602551.4555445</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602550.0836828.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602551.4555445.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>166.04</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>166.98</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.9399999999999977</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -3003,51 +3307,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731602551.6273103</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731602551.9500685</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602551.6273103.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602551.9500685.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>166.74</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>167.06</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3055,51 +3365,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731602553.8037004</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731602555.7347872</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602553.8037004.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602555.7347872.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>167.34</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>166.2</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-1.140000000000015</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -3107,95 +3423,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731602556.3258326</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731602556.3258326.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731602556.3258326.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>166.08</v>
       </c>
-      <c r="J53" t="n">
-        <v>166.08</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>165.86</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731602558.2493412</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731602561.471552</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602558.2493412.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602561.471552.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>51.29</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>51.645</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.355000000000004</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731602561.4875097</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731602563.502225</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602561.4875097.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602563.502225.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>51.645</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>51.04</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.605000000000004</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731602563.5181868</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731602565.920054</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602563.5181868.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602565.920054.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>51.04</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>51.185</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1450000000000031</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3307,51 +3647,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731602565.935051</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731602566.4276361</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602565.935051.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602566.4276361.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>51.185</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>51</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1850000000000023</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3359,51 +3705,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731602566.9672298</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731602569.9655218</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602566.9672298.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602569.9655218.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>50.99</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>51.1</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3411,51 +3763,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731602570.8340235</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731602571.2741034</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602570.8340235.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602571.2741034.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>51.22</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>51.155</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3463,51 +3821,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731602571.8113542</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731602579.4959626</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602571.8113542.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602579.4959626.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>51.265</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>51.22</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731602579.5128913</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731602581.2231958</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602579.5128913.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602581.2231958.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>51.22</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>51.385</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731602583.724354</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731602583.8942888</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602583.724354.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602583.8942888.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1412.6</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1412.2</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.3999999999998636</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731602585.0181966</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731602586.0921054</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602585.0181966.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602586.0921054.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1421.2</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1422</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731602586.1080654</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731602587.4567678</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602586.1080654.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602587.4567678.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1422</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1416</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-6</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731602591.3375943</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731602592.4286613</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602591.3375943.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602592.4286613.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1419.2</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1417.6</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-1.600000000000136</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731602593.046451</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731602594.1075282</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602593.046451.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602594.1075282.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1419.6</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1418.2</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-1.399999999999864</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731602594.1234946</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731602595.1357713</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602594.1234946.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602595.1357713.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1416.6</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1.600000000000136</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731602595.1911588</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731602595.2856169</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602595.1911588.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602595.2856169.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1417</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3931,51 +4343,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731602595.925348</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731602598.9568336</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602595.925348.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602598.9568336.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1420.6</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1418.8</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3983,51 +4401,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731602598.973258</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731602604.0817502</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602598.973258.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602604.0817502.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1418.8</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1420</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731602604.0986805</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731602604.3089178</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602604.0986805.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602604.3089178.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1420</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1422.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4087,51 +4517,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731602606.0623653</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731602607.8012614</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602606.0623653.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602607.8012614.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>59.81</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>60.24</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.4299999999999997</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -4139,51 +4575,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731602607.817215</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731602611.178496</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602607.817215.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602611.178496.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>60.24</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>60.59</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.3500000000000014</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -4191,51 +4633,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731602611.1954496</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731602613.3467057</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602611.1954496.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602613.3467057.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>60.59</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>60.45</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -4243,51 +4691,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731602617.553051</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731602618.1651318</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602617.553051.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602618.1651318.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>60.6</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>60.66</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.05999999999999517</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4295,51 +4749,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731602620.5973485</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731602621.9297237</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602620.5973485.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602621.9297237.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>60.72</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>60.96</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.240000000000002</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4347,51 +4807,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731602622.182428</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731602624.0249066</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602622.182428.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602624.0249066.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>60.83</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>60.93</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4399,95 +4865,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731602625.0348558</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731602625.0348558.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731602625.0348558.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>60.83</v>
       </c>
-      <c r="J78" t="n">
-        <v>60.83</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>60.65</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.1799999999999997</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731602632.8765247</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731602633.5238094</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602632.8765247.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602633.5238094.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>56.64</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>56.56</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731602633.5397658</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731602638.1358147</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602633.5397658.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602638.1358147.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>56.56</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>56.68</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4547,51 +5031,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731602648.210688</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731602648.8622448</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602648.210688.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602648.8622448.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>56.87</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>56.7</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4599,51 +5089,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731602651.7488065</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731602653.7240722</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602651.7488065.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602653.7240722.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>141</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>141.84</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4651,51 +5147,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731602654.8264568</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731602655.5363717</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602654.8264568.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602655.5363717.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>141.66</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>140.72</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.9399999999999977</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -4703,51 +5205,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731602660.3955765</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731602667.328459</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602660.3955765.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602667.328459.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>141.9</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>141.66</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4755,51 +5263,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731602667.344179</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731602667.6326542</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602667.344179.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602667.6326542.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>141.66</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>141.86</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4807,95 +5321,107 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731602670.770282</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731602670.770282.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731602670.770282.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>141.7</v>
       </c>
-      <c r="J86" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>141.2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731602673.241643</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731602674.8959901</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602673.241643.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602674.8959901.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>51.38</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>52.49</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.109999999999999</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>2.16</v>
       </c>
     </row>
@@ -4903,51 +5429,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731602674.9113793</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731602676.9547536</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602674.9113793.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602676.9547536.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>52.49</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>52.39</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4955,51 +5487,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731602676.9727054</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731602677.9345832</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602676.9727054.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602677.9345832.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>52.39</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>52.59</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -5007,51 +5545,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731602687.236371</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731602692.0223114</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602687.236371.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602692.0223114.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>53.53</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>53.99</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.4600000000000009</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -5059,51 +5603,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731602692.0382693</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731602696.2197864</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602692.0382693.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602696.2197864.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>53.99</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>53.85</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -5111,95 +5661,107 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731602696.2357395</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731602696.2357395.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731602696.2357395.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>53.85</v>
       </c>
-      <c r="J92" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>54.05</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.1999999999999957</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731602696.8439536</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731602698.192083</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602696.8439536.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602698.192083.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>365.35</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>364.3</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-1.050000000000011</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -5207,51 +5769,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731602698.2080417</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731602702.692642</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602698.2080417.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602702.692642.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>364.3</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>366.58</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-2.279999999999973</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -5259,51 +5827,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731602702.7085993</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731602703.1875455</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602702.7085993.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602703.1875455.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>366.58</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>367.79</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>1.210000000000036</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -5311,51 +5885,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731602705.2816613</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731602707.2628956</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602705.2816613.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602707.2628956.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>369.6</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>371.94</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>2.339999999999975</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -5363,51 +5943,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731602707.9595344</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731602709.7608955</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602707.9595344.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602709.7608955.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>370.6</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>371.58</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.9799999999999613</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -5415,51 +6001,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731602715.9073029</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731602716.0009537</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602715.9073029.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602716.0009537.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>374.57</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>372.73</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-1.839999999999975</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -5467,51 +6059,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731602719.5142696</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731602719.6434972</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602719.5142696.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602719.6434972.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>0.0965</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>0.09588000000000001</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.0006199999999999956</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -5519,51 +6117,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731602719.6594634</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731602721.248997</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602719.6594634.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602721.248997.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>0.09588000000000001</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>0.09622000000000001</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.000340000000000007</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -5571,51 +6175,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731602721.2669477</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731602721.7787874</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602721.2669477.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602721.7787874.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>0.09622000000000001</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>0.09614</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>8.000000000001062e-05</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5623,51 +6233,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731602721.7957418</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731602722.531499</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602721.7957418.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602722.531499.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>0.09614</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>0.09636</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.000219999999999998</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -5675,51 +6291,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731602723.555186</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731602724.680462</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602723.555186.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602724.680462.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>0.09618</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>0.09614</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-3.999999999999837e-05</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5727,51 +6349,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731602728.2791243</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731602729.5403717</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602728.2791243.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602729.5403717.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>0.09762000000000001</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>0.09714</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.0004800000000000082</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -5779,51 +6407,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731602730.7540915</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731602732.0942843</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602730.7540915.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602732.0942843.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>0.09692000000000001</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>0.09714</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.000219999999999998</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -5831,51 +6465,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731602733.0994318</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731602733.7678378</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602733.0994318.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602733.7678378.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>0.09664</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.0006000000000000033</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -5883,95 +6523,107 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731602738.4874835</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731602738.4874835.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731602738.4874835.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>0.09760000000000001</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09760000000000001</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>0.09762</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.999999999999225e-05</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731602739.2726424</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731602739.7041261</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602739.2726424.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602739.7041261.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>2988.65</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>2981.85</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>6.800000000000182</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -5979,51 +6631,57 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731602739.7210534</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731602741.545825</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602739.7210534.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602741.545825.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>2981.85</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>3000.35</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>18.5</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -6031,51 +6689,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731602741.5617778</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731602743.6546679</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602741.5617778.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602743.6546679.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>3000.35</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>3004.1</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-3.75</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -6083,51 +6747,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731602743.6706562</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731602743.721039</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602743.6706562.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602743.721039.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>3004.1</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>3008.25</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>4.150000000000091</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -6135,51 +6805,57 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731602749.9888546</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731602750.0432303</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602749.9888546.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602750.0432303.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>3013.45</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>3012.05</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-1.399999999999636</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -6187,51 +6863,57 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731602750.2821388</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731602751.307474</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602750.2821388.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602751.307474.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>3008.45</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>3010.5</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>2.050000000000182</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -6239,51 +6921,57 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731602753.356689</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731602753.8470807</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602753.356689.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602753.8470807.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>3007.7</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>3010.95</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>3.25</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -6291,51 +6979,57 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731602755.4478877</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731602756.8147366</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602755.4478877.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602756.8147366.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>3013</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>3020.3</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>7.300000000000182</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -6343,51 +7037,57 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731602760.6862636</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731602761.8887253</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602760.6862636.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602761.8887253.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>3013.3</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>3021</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>7.699999999999818</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -6395,95 +7095,107 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731602761.9056768</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731602761.9056768.png</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731602761.9056768.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>3021</v>
       </c>
-      <c r="J117" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>3023.35</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-2.349999999999909</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731602763.926527</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731602763.9753966</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602763.926527.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602763.9753966.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>34.5</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>34.36</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L118" t="n">
+      <c r="N118" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -6491,51 +7203,57 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731602764.2746444</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731602766.5381088</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602764.2746444.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602766.5381088.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>34.22</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>34.395</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-0.1750000000000043</v>
       </c>
-      <c r="L119" t="n">
+      <c r="N119" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -6543,51 +7261,57 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731602767.9179974</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731602768.6134703</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602767.9179974.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602768.6134703.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>34.54</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>34.41</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L120" t="n">
+      <c r="N120" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -6595,51 +7319,57 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731602771.8287013</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731602774.4843843</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602771.8287013.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602774.4843843.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>34.6</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>34.62</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L121" t="n">
+      <c r="N121" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -6647,51 +7377,57 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731602774.501369</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731602775.377163</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602774.501369.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602775.377163.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>34.62</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>34.755</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.1350000000000051</v>
       </c>
-      <c r="L122" t="n">
+      <c r="N122" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -6699,51 +7435,57 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731602783.1171863</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731602783.9844217</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602783.1171863.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602783.9844217.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>34.585</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>34.55</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>0.03500000000000369</v>
       </c>
-      <c r="L123" t="n">
+      <c r="N123" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -6751,51 +7493,57 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731602784.0804443</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731602784.7264721</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602784.0804443.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602784.7264721.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>34.575</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>34.555</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L124" t="n">
+      <c r="N124" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -6803,51 +7551,57 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731602784.8184056</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731602785.035394</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602784.8184056.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602785.035394.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>34.585</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>34.53</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L125" t="n">
+      <c r="N125" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -6855,51 +7609,57 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731602789.8592708</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731602793.346986</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602789.8592708.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602793.346986.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>650.9</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>647.4</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>3.5</v>
       </c>
-      <c r="L126" t="n">
+      <c r="N126" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -6907,51 +7667,57 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1731602793.3629153</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>1731602793.7341855</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602793.3629153.png</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602793.7341855.png</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
         <v>647.4</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>649.4</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>2</v>
       </c>
-      <c r="L127" t="n">
+      <c r="N127" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -6959,51 +7725,57 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>1731602794.4475524</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>1731602796.8847306</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602794.4475524.png</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602796.8847306.png</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
         <v>647</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>649.3</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>2.299999999999955</v>
       </c>
-      <c r="L128" t="n">
+      <c r="N128" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -7011,51 +7783,57 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>1731602798.9043405</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>1731602801.6285033</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602798.9043405.png</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602801.6285033.png</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
         <v>647.9</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>647.4</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L129" t="n">
+      <c r="N129" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -7063,51 +7841,57 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>1731602804.8431761</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>1731602806.549203</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602804.8431761.png</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602806.549203.png</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
         <v>647.5</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>643.2</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>-4.299999999999955</v>
       </c>
-      <c r="L130" t="n">
+      <c r="N130" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -7115,51 +7899,57 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>1731602806.56616</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>1731602806.8566465</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602806.56616.png</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602806.8566465.png</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
         <v>643.2</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>644.1</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L131" t="n">
+      <c r="N131" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -7167,51 +7957,57 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>1731602806.913576</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>1731602806.9694257</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602806.913576.png</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602806.9694257.png</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
         <v>644.3</v>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>644.5</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L132" t="n">
+      <c r="N132" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -7219,51 +8015,57 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>1731602807.1063414</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>1731602807.327141</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602807.1063414.png</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602807.327141.png</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
         <v>643.7</v>
       </c>
-      <c r="J133" t="n">
+      <c r="L133" t="n">
         <v>642.5</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L133" t="n">
+      <c r="N133" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -7325,19 +8127,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.60000000000082</v>
+        <v>42.25000000000091</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>4.460000000000082</v>
+        <v>4.225000000000091</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -7369,16 +8171,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.80000000000041</v>
+        <v>17.60000000000036</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.780000000000041</v>
+        <v>1.760000000000036</v>
       </c>
       <c r="E4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F4" t="n">
         <v>0.17</v>
@@ -7391,19 +8193,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.50000000000017</v>
+        <v>13.75000000000017</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.388888888888908</v>
+        <v>1.527777777777797</v>
       </c>
       <c r="E5" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="F5" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -7413,16 +8215,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001560000000000006</v>
+        <v>0.001579999999999998</v>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000173333333333334</v>
+        <v>0.0001755555555555553</v>
       </c>
       <c r="E6" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="F6" t="n">
         <v>0.18</v>
@@ -7435,19 +8237,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.339999999999975</v>
+        <v>1.059999999999974</v>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1488888888888861</v>
+        <v>0.1177777777777749</v>
       </c>
       <c r="E7" t="n">
-        <v>1.05</v>
+        <v>0.83</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -7545,19 +8347,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3399999999999963</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C12" t="n">
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04857142857142804</v>
+        <v>0.02285714285714237</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +8369,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3400000000000318</v>
+        <v>-0.5600000000000307</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04857142857143312</v>
+        <v>-0.08000000000000439</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1999999999999998</v>
+        <v>-0.3299999999999998</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14">
@@ -7589,19 +8391,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.010000000000005</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3350000000000009</v>
+        <v>0.3683333333333335</v>
       </c>
       <c r="E14" t="n">
-        <v>3.85</v>
+        <v>4.22</v>
       </c>
       <c r="F14" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
@@ -7655,19 +8457,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3400000000000318</v>
+        <v>-0.1599999999999682</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06800000000000636</v>
+        <v>-0.03199999999999363</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2499999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
@@ -7677,16 +8479,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-55</v>
+        <v>-53</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.75</v>
+        <v>-13.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8200000000000001</v>
+        <v>-0.79</v>
       </c>
       <c r="F18" t="n">
         <v>-0.2</v>
